--- a/xlsx/航空母舰_intext.xlsx
+++ b/xlsx/航空母舰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="972">
   <si>
     <t>航空母舰</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E6%96%B9%E8%88%9F%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(R07)</t>
   </si>
   <si>
-    <t>皇家方舟號航空母艦 (R07)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_航空母舰</t>
+    <t>皇家方舟号航空母舰 (R07)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%93%E8%B6%8A%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0_(R06)</t>
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%95%B5%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>無敵號航空母艦</t>
+    <t>无敌号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%85%8B%E9%87%8C%C2%B7%E7%B4%8D%E5%91%82%E8%B2%9D%E7%89%B9%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>查克里·納呂貝特號航空母艦</t>
+    <t>查克里·纳吕贝特号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%97%A5%E7%8E%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>超日王號航空母艦</t>
+    <t>超日王号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E8%A6%AA%E7%8E%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>阿斯圖里亞斯親王號航空母艦</t>
+    <t>阿斯图里亚斯亲王号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>聖保羅號航空母艦</t>
+    <t>圣保罗号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8B%89%E7%89%B9%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>維拉特號航空母艦</t>
+    <t>维拉特号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%B9%E6%B6%85%E4%BD%90%E5%A4%AB%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E6%B3%A2%E5%BA%95%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>加里波底號航空母艦</t>
+    <t>加里波底号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E9%AB%98%E6%A8%82%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>戴高樂號航空母艦</t>
+    <t>戴高乐号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%A6%E8%BC%89%E6%A9%9F</t>
   </si>
   <si>
-    <t>艦載機</t>
+    <t>舰载机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%88%B0</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E6%88%B0%E9%AC%A5%E7%BE%A4</t>
   </si>
   <si>
-    <t>航空母艦戰鬥群</t>
+    <t>航空母舰战斗群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E6%B0%B4%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>藍水海軍</t>
+    <t>蓝水海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%88%98</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>水上飛機</t>
+    <t>水上飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E7%BF%BC%E6%9C%BA</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E9%A3%9B%E6%A9%9F%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>水上飛機母艦</t>
+    <t>水上飞机母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%89%A6%E5%B7%A8%E7%A0%B2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>大艦巨砲主義</t>
+    <t>大舰巨砲主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>馬來亞海戰</t>
+    <t>马来亚海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E6%B5%B7%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>菲律賓海海戰</t>
+    <t>菲律宾海海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%88%98</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太空戰爭</t>
+    <t>太空战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>戰場</t>
+    <t>战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E6%88%B0</t>
   </si>
   <si>
-    <t>網路戰</t>
+    <t>网路战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%8E%AE%E6%88%B0</t>
   </si>
   <si>
-    <t>城鎮戰</t>
+    <t>城镇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>騎兵</t>
+    <t>骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>裝甲戰鬥車輛</t>
+    <t>装甲战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AE</t>
@@ -407,21 +407,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>裝甲騎兵團</t>
+    <t>装甲骑兵团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>軍艦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E8%89%87</t>
   </si>
   <si>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%AD%A6%E5%99%A8</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模殺傷性武器</t>
+    <t>大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%88%98</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A6%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>常規戰爭</t>
+    <t>常规战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>會戰</t>
+    <t>会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E6%88%B0</t>
   </si>
   <si>
-    <t>閃電戰</t>
+    <t>闪电战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unconventional_warfare</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
   </si>
   <si>
-    <t>超限戰</t>
+    <t>超限战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
@@ -515,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%88%B6%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>無限制潛艇戰</t>
+    <t>无限制潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E4%BD%93%E6%88%98</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7%E9%99%A3</t>
   </si>
   <si>
-    <t>地雷陣</t>
+    <t>地雷阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AE%E5%85%B5</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E6%B7%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>縱深作戰</t>
+    <t>纵深作战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/joint_warfare</t>
@@ -575,25 +572,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%BC%B7%E5%BA%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>低強度戰爭</t>
+    <t>低强度战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%82%8A%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>費邊戰術</t>
+    <t>费边战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%B8%AD%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡中心戰</t>
+    <t>网络中心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E9%80%B8%E5%BE%85%E5%8B%9E</t>
   </si>
   <si>
-    <t>以逸待勞</t>
+    <t>以逸待劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>防衛戰</t>
+    <t>防卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5</t>
@@ -629,31 +626,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>武裝衝突</t>
+    <t>武装冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AD%89%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
-    <t>相互保證毀滅</t>
+    <t>相互保证毁灭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8</t>
   </si>
   <si>
-    <t>戰略轟炸</t>
+    <t>战略轰炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>軍事間諜</t>
+    <t>军事间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E5%9C%9F%E6%94%BF%E7%AD%96</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>軍事組織</t>
+    <t>军事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%8F%82%E8%B0%8B%E9%83%A8</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E5%BD%A2</t>
   </si>
   <si>
-    <t>陣形</t>
+    <t>阵形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%88%B0%E5%BA%8F%E5%88%97</t>
   </si>
   <si>
-    <t>作戰序列</t>
+    <t>作战序列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%A1%94</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99%E8%BB%8D%E4%BA%8B%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>後備軍事動員</t>
+    <t>后备军事动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80</t>
   </si>
   <si>
-    <t>軍需</t>
+    <t>军需</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A5%E7%BB%99%E7%BA%BF</t>
@@ -749,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E6%A5%AD%E8%A4%87%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>軍事工業複合體</t>
+    <t>军事工业复合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%8C%E6%96%B9</t>
   </si>
   <si>
-    <t>大後方</t>
+    <t>大后方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -767,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%B3%95%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>軍法審判</t>
+    <t>军法审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81%E6%B3%95</t>
   </si>
   <si>
-    <t>武裝衝突法</t>
+    <t>武装冲突法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8D%A0%E9%A2%86</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8F%98</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E4%B8%A5</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事學</t>
+    <t>军事学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E8%AE%BA</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
+    <t>孙子兵法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%80%9D%E6%83%B3</t>
@@ -869,19 +866,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%8B%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>後勤學</t>
+    <t>后勤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事歷史學</t>
+    <t>军事历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>三十六計</t>
+    <t>三十六计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E5%88%97%E8%A1%A8</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%BD%B9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>戰役列表</t>
+    <t>战役列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%8D%E4%B8%BB%E4%B9%89</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%A8%AE%E5%B0%8D%E7%AB%8B</t>
   </si>
   <si>
-    <t>軍種對立</t>
+    <t>军种对立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -953,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%C2%B7%E6%9F%AF%E8%92%82%E6%96%AF</t>
   </si>
   <si>
-    <t>格倫·柯蒂斯</t>
+    <t>格伦·柯蒂斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%95%8F%E8%88%B0</t>
@@ -995,25 +992,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>巡洋艦</t>
+    <t>巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>航空巡洋艦</t>
+    <t>航空巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B4%8B%E5%AE%9A%E6%9C%9F%E8%88%B9</t>
   </si>
   <si>
-    <t>遠洋定期船</t>
+    <t>远洋定期船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%9C%BC%E5%B7%A8%E4%BA%BA%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>百眼巨人號航空母艦</t>
+    <t>百眼巨人号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E6%8A%80%E7%A5%9E%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0_(1923%E5%B9%B4)</t>
@@ -1025,13 +1022,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E7%BF%94%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>鳳翔號航空母艦</t>
+    <t>凤翔号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%88%A9%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-1)</t>
   </si>
   <si>
-    <t>蘭利號航空母艦 (CV-1)</t>
+    <t>兰利号航空母舰 (CV-1)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E6%B5%B7%E5%86%9B%E6%9D%A1%E7%BA%A6</t>
@@ -1043,31 +1040,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%A6%E9%9A%8A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>艦隊航空母艦</t>
+    <t>舰队航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家空軍</t>
+    <t>英国皇家空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E4%BA%9E%E6%81%A9%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>貝亞恩號航空母艦</t>
+    <t>贝亚恩号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%B5%B7%E6%88%B0_(1939%E5%B9%B4%EF%BC%8D1945%E5%B9%B4)</t>
   </si>
   <si>
-    <t>大西洋海戰 (1939年－1945年)</t>
+    <t>大西洋海战 (1939年－1945年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>地中海戰役</t>
+    <t>地中海战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HMS_Audacity_(D10)</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E9%AA%A8</t>
   </si>
   <si>
-    <t>龍骨</t>
+    <t>龙骨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Z%E8%AE%A1%E5%88%92</t>
@@ -1091,19 +1088,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%98%AD%E6%89%98%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>塔蘭托戰役</t>
+    <t>塔兰托战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A5%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>俾斯麥號戰艦</t>
+    <t>俾斯麦号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬爾他島</t>
+    <t>马尔他岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operation_Pedestal</t>
@@ -1115,19 +1112,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太平洋戰爭</t>
+    <t>太平洋战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>艾塞克斯級航空母艦</t>
+    <t>艾塞克斯级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>日本帝國</t>
+    <t>日本帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF</t>
@@ -1139,19 +1136,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>戰艦</t>
+    <t>战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>印度洋空襲</t>
+    <t>印度洋空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%AF%8D%E5%AF%B9%E6%88%98</t>
@@ -1175,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%BC%8A%E6%B3%B0%E7%81%A3%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>雷伊泰灣海戰</t>
+    <t>雷伊泰湾海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E8%A1%80%E9%AC%BC%E5%BC%8F%E5%99%B4%E6%B0%A3%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>吸血鬼式噴氣戰鬥機</t>
+    <t>吸血鬼式喷气战斗机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HMS_Ocean_(R68)</t>
@@ -1193,13 +1190,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>超級航空母艦</t>
+    <t>超级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>美國號航空母艦</t>
+    <t>美国号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直升機</t>
+    <t>直升机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Optical_landing_system</t>
@@ -1235,19 +1232,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E8%90%8A%E6%96%AF%E7%89%B9%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>福萊斯特級航空母艦</t>
+    <t>福莱斯特级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%9A%E9%B5%A1%E8%9E%BA%E8%99%9F%E6%A0%B8%E5%8B%95%E5%8A%9B%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>鸚鵡螺號核動力潛艇</t>
+    <t>鹦鹉螺号核动力潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CVN-65)</t>
   </si>
   <si>
-    <t>企業號航空母艦 (CVN-65)</t>
+    <t>企业号航空母舰 (CVN-65)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E9%81%93%E5%AF%BC%E5%BC%B9%E6%BD%9C%E8%89%87</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%BD%9B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>反潛航空母艦</t>
+    <t>反潜航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%95%8C%E7%BA%A7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -1295,19 +1292,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E8%92%99%E6%A2%AD%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>克里蒙梭級航空母艦</t>
+    <t>克里蒙梭级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%9F%BA%E5%A1%94%C2%B7%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB</t>
   </si>
   <si>
-    <t>尼基塔·赫魯曉夫</t>
+    <t>尼基塔·赫鲁晓夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -1319,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>基輔級航空母艦</t>
+    <t>基辅级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1331,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1971%E5%B9%B4%E5%8D%B0%E5%B7%B4%E6%88%98%E4%BA%89</t>
@@ -1355,25 +1349,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%BD%B9%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>現役航空母艦列表</t>
+    <t>现役航空母舰列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -1385,19 +1373,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E7%B4%9A%E6%A0%B8%E5%8B%95%E5%8A%9B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>福特級核動力航空母艦</t>
+    <t>福特级核动力航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -1409,13 +1397,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%E5%A5%B3%E7%8E%8B%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>伊莉莎白女王級航空母艦</t>
+    <t>伊莉莎白女王级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E4%BB%A3%E5%BE%8C%E6%9C%9F%E7%92%B0%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2000年代後期環球金融危機</t>
+    <t>2000年代后期环球金融危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2013_French_White_Paper_on_Defence_and_National_Security</t>
@@ -1427,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%87%8C%E6%A5%8A%E8%AB%BE%E5%A4%AB%E6%96%AF%E5%85%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>烏里楊諾夫斯克號航空母艦</t>
+    <t>乌里杨诺夫斯克号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E7%BB%B4%E7%B4%A2%E8%8C%A8%E5%9F%BA_(%E5%86%9B%E4%BA%BA)</t>
@@ -1451,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/23000E%E5%9E%8B%E6%96%BD%E6%89%98%E5%A7%86%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>23000E型施托姆級航空母艦</t>
+    <t>23000E型施托姆级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%AF%8C%E5%B0%94%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -1469,25 +1457,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%88%BE%E4%BB%80%E7%A7%91%E5%A4%AB%E6%B5%B7%E8%BB%8D%E4%B8%8A%E5%B0%87%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>戈爾什科夫海軍上將號航空母艦</t>
+    <t>戈尔什科夫海军上将号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%85%8B%E8%98%AD%E7%89%B9%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>維克蘭特級航空母艦</t>
+    <t>维克兰特级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>基輔號航空母艦</t>
+    <t>基辅号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E5%85%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>明斯克號航空母艦</t>
+    <t>明斯克号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E9%A2%98%E5%85%AC%E5%9B%AD</t>
@@ -1511,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>墨爾本號航空母艦</t>
+    <t>墨尔本号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%89%AF%E6%A0%BC%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -1535,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF%E4%B8%80%E4%B8%96%E8%99%9F%E5%85%A9%E6%A3%B2%E6%94%BB%E6%93%8A%E8%89%A6</t>
   </si>
   <si>
-    <t>胡安·卡洛斯一世號兩棲攻擊艦</t>
+    <t>胡安·卡洛斯一世号两栖攻击舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E5%B2%9B%E5%8F%B7%E4%B8%A4%E6%A0%96%E6%94%BB%E5%87%BB%E8%88%B0</t>
@@ -1547,13 +1535,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%B7%B9%E7%B4%9A%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>小鷹級航空母艦</t>
+    <t>小鹰级航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%BA%A7%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>星座號航空母艦</t>
+    <t>星座号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%85%8B%E6%98%9F%E6%95%A6%E7%BA%A7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -1565,13 +1553,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BB%83%E8%9C%82%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-12)</t>
   </si>
   <si>
-    <t>大黃蜂號航空母艦 (CV-12)</t>
+    <t>大黄蜂号航空母舰 (CV-12)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%8E%83%E6%8F%8F%E9%99%A3%E5%88%97%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>電子掃描陣列雷達</t>
+    <t>电子扫描阵列雷达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sopwith_Camel</t>
@@ -1583,31 +1571,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E9%BE%8D%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>飛龍號航空母艦</t>
+    <t>飞龙号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%B7%B9%E8%99%9F</t>
   </si>
   <si>
-    <t>小鷹號</t>
+    <t>小鹰号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E8%9C%82%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-7)</t>
   </si>
   <si>
-    <t>胡蜂號航空母艦 (CV-7)</t>
+    <t>胡蜂号航空母舰 (CV-7)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E7%94%B2%E6%9D%BF</t>
   </si>
   <si>
-    <t>飛行甲板</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橡膠</t>
+    <t>橡胶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dennis_Cambell</t>
@@ -1619,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>中途島號航空母艦</t>
+    <t>中途岛号航空母舰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/V/STOL</t>
@@ -1655,19 +1640,19 @@
     <t>https://zh.wikipedia.org/wiki/F6F%E5%9C%B0%E7%8D%84%E8%B2%93%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F6F地獄貓戰鬥機</t>
+    <t>F6F地狱猫战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-14%E9%9B%84%E8%B2%93%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-14雄貓式戰鬥機</t>
+    <t>F-14雄猫式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V-1%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>V-1飛彈</t>
+    <t>V-1飞弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HMS_Perseus_(R51)</t>
@@ -1685,13 +1670,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E6%87%B8%E6%B5%AE%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>磁懸浮列車</t>
+    <t>磁悬浮列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>印度海軍</t>
+    <t>印度海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/aircraft_ski-jump</t>
@@ -1703,7 +1688,7 @@
     <t>https://zh.wikipedia.org/wiki/S-3%E7%B6%AD%E4%BA%AC%E5%BC%8F%E5%8F%8D%E6%BD%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>S-3維京式反潛機</t>
+    <t>S-3维京式反潜机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arresting_gear</t>
@@ -1751,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%B0%A3%E6%B8%A6%E8%BC%AA%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>燃氣渦輪發動機</t>
+    <t>燃气涡轮发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%B8%A6%E8%BC%AA%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>蒸汽渦輪發動機</t>
+    <t>蒸汽涡轮发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8F%8D%E5%BA%94%E5%A0%86</t>
@@ -1787,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%A4%96%E7%B7%9A%E5%B0%8E%E5%BC%95</t>
   </si>
   <si>
-    <t>紅外線導引</t>
+    <t>红外线导引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E5%B1%B1</t>
@@ -1805,31 +1790,31 @@
     <t>https://zh.wikipedia.org/wiki/E-2%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-2空中預警機</t>
+    <t>E-2空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-2%E7%81%B0%E7%8B%97%E5%BC%8F%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-2灰狗式運輸機</t>
+    <t>C-2灰狗式运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EA-6%E5%BE%98%E5%BE%8A%E8%80%85%E5%BC%8F%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>EA-6徘徊者式電子作戰機</t>
+    <t>EA-6徘徊者式电子作战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F/A-18E/F%E8%B6%85%E7%B4%9A%E5%A4%A7%E9%BB%83%E8%9C%82%E5%BC%8F%E6%89%93%E6%93%8A%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18E/F超級大黃蜂式打擊戰鬥機</t>
+    <t>F/A-18E/F超级大黄蜂式打击战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F/A-18%E9%BB%83%E8%9C%82%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18黃蜂式戰鬥攻擊機</t>
+    <t>F/A-18黄蜂式战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9</t>
@@ -1853,13 +1838,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%BD%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>反潛機</t>
+    <t>反潜机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%9B%B7%E6%A9%9F</t>
   </si>
   <si>
-    <t>魚雷機</t>
+    <t>鱼雷机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E5%87%BB%E6%9C%BA</t>
@@ -1877,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子作戰機</t>
+    <t>电子作战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%A6%E5%AF%9F%E6%9C%BA</t>
@@ -1895,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E6%96%97%E8%BD%B0%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>战斗轰炸機</t>
+    <t>战斗轰炸机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Strike_Fighter</t>
@@ -1907,55 +1892,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E9%A2%A8%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>陣風戰鬥機</t>
+    <t>阵风战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AV-8%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>AV-8攻擊機</t>
+    <t>AV-8攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%B7%82%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>海鷂戰鬥攻擊機</t>
+    <t>海鹞战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Su-25%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>Su-25攻擊機</t>
+    <t>Su-25攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Su-33%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>Su-33戰鬥機</t>
+    <t>Su-33战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-4%E5%A4%A9%E9%B7%B9%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-4天鷹式攻擊機</t>
+    <t>A-4天鹰式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-35%E9%96%83%E9%9B%BBII%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-35閃電II戰鬥機</t>
+    <t>F-35闪电II战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E4%BB%A3%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>第五代戰鬥機</t>
+    <t>第五代战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC-29%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>米格-29戰鬥機</t>
+    <t>米格-29战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E5%86%9B%E6%B5%B7%E5%86%9B</t>
@@ -1979,19 +1964,19 @@
     <t>https://zh.wikipedia.org/wiki/V-22%E9%AD%9A%E9%B7%B9%E5%BC%8F%E5%82%BE%E8%BD%89%E6%97%8B%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>V-22魚鷹式傾轉旋翼機</t>
+    <t>V-22鱼鹰式倾转旋翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SH-60%E6%B5%B7%E9%B7%B9%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>SH-60海鷹直升機</t>
+    <t>SH-60海鹰直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SH-3%E6%B5%B7%E7%8E%8B%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>SH-3海王直昇機</t>
+    <t>SH-3海王直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1-27%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -2003,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%BF%AB%E6%AD%A6%E5%99%A8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>近迫武器系統</t>
+    <t>近迫武器系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E8%AF%B1%E9%A5%B5%E5%BC%B9</t>
@@ -2027,13 +2012,13 @@
     <t>https://zh.wikipedia.org/wiki/RIM-116%E6%BB%BE%E9%AB%94%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>RIM-116滾體飛彈</t>
+    <t>RIM-116滚体飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E9%99%A3%E8%BF%91%E8%BF%AB%E6%AD%A6%E5%99%A8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>方陣近迫武器系統</t>
+    <t>方阵近迫武器系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_36_SRBOC</t>
@@ -2045,19 +2030,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%BE%8D_(%E5%8C%96%E5%AD%B8%E5%93%81)</t>
   </si>
   <si>
-    <t>海龍 (化學品)</t>
+    <t>海龙 (化学品)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%BF%83%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>信濃號航空母艦</t>
+    <t>信浓号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E9%8E%AE%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-5)</t>
   </si>
   <si>
-    <t>約克鎮號航空母艦 (CV-5)</t>
+    <t>约克镇号航空母舰 (CV-5)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%BE%89%E7%BA%A7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -2069,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E5%B0%84%E9%A3%9B%E6%A9%9F%E5%95%86%E8%88%B9</t>
   </si>
   <si>
-    <t>彈射飛機商船</t>
+    <t>弹射飞机商船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E8%88%B9%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -2081,13 +2066,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E5%B8%83%E8%98%AD%E5%8D%A1%E7%B4%9A%E8%AD%B7%E8%88%AA%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>卡薩布蘭卡級護航航空母艦</t>
+    <t>卡萨布兰卡级护航航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E7%AA%81%E6%93%8A%E8%89%A6</t>
   </si>
   <si>
-    <t>兩棲突擊艦</t>
+    <t>两栖突击舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%9C%BA%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -2099,19 +2084,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%90%91%E7%B4%9A%E8%AD%B7%E8%A1%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>日向級護衛艦</t>
+    <t>日向级护卫舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%BD%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>航空潛艦</t>
+    <t>航空潜舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%9B%9B%E7%99%BE%E5%9E%8B%E6%BD%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>伊四百型潛艦</t>
+    <t>伊四百型潜舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%BA%93%E8%88%B0</t>
@@ -2135,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E6%89%93%E6%93%8A%E7%BE%A4</t>
   </si>
   <si>
-    <t>航空母艦打擊群</t>
+    <t>航空母舰打击群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E9%A3%8E%E6%9A%B4%E8%A1%8C%E5%8A%A8</t>
@@ -2165,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲戰</t>
+    <t>两栖战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E7%94%B2%E5%BC%B9</t>
@@ -2177,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%89%A6%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>反艦飛彈</t>
+    <t>反舰飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E6%A0%96%E6%88%98%E8%88%B0</t>
@@ -2189,31 +2174,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊</t>
+    <t>海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/5%E6%9C%8825%E6%97%A5%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>5月25日號航空母艦</t>
+    <t>5月25日号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍航空隊</t>
+    <t>美国陆军航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議</t>
+    <t>美国参谋长联席会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Strategic_Air_Command</t>
@@ -2225,7 +2210,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%8F%B2%E5%B7%B4%E8%8C%B2</t>
   </si>
   <si>
-    <t>卡爾·史巴茲</t>
+    <t>卡尔·史巴兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%9D%9C%E7%AB%8B%E5%BE%B7</t>
@@ -2237,31 +2222,31 @@
     <t>https://zh.wikipedia.org/wiki/B-36%E5%92%8C%E5%B9%B3%E7%B7%A0%E9%80%A0%E8%80%85%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-36和平締造者轟炸機</t>
+    <t>B-36和平缔造者轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%A6%AC%C2%B7%E5%B8%83%E8%90%8A%E5%BE%B7%E9%9B%B7</t>
   </si>
   <si>
-    <t>歐馬·布萊德雷</t>
+    <t>欧马·布莱德雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>西西里島戰役</t>
+    <t>西西里岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E5%9C%B0%E7%99%BB%E9%99%B8</t>
   </si>
   <si>
-    <t>諾曼地登陸</t>
+    <t>诺曼地登陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國國防部長</t>
+    <t>美国国防部长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Louis_A._Johnson</t>
@@ -2273,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/RDS-1%E5%8E%9F%E5%AD%90%E5%BD%88</t>
   </si>
   <si>
-    <t>RDS-1原子彈</t>
+    <t>RDS-1原子弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/B57_nuclear_bomb</t>
@@ -2285,7 +2270,7 @@
     <t>https://zh.wikipedia.org/wiki/RGM-6%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>RGM-6飛彈</t>
+    <t>RGM-6飞弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atomic_Energy_Act_of_1946</t>
@@ -2309,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B-38%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>雅克-38攻擊機</t>
+    <t>雅克-38攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-700%E5%AF%BC%E5%BC%B9</t>
@@ -2327,25 +2312,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2%E8%B7%B3%E9%BC%A0</t>
   </si>
   <si>
-    <t>藍色跳鼠</t>
+    <t>蓝色跳鼠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ASMP%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>ASMP飛彈</t>
+    <t>ASMP飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%BB%8D%E6%97%97%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>超級軍旗攻擊機</t>
+    <t>超级军旗攻击机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/AN-52_bomb</t>
@@ -2375,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%BD%9B%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>反潛作戰</t>
+    <t>反潜作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E6%B0%B4%E7%82%B8%E5%BC%B9</t>
@@ -2393,7 +2378,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E7%B4%8D</t>
   </si>
   <si>
-    <t>聲納</t>
+    <t>声纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-2C</t>
@@ -2405,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9B%BE%E6%88%B0%E9%AC%A5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神盾戰鬥系統</t>
+    <t>神盾战斗系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HMS_Sheffield_(D80)</t>
@@ -2435,25 +2420,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0%E6%88%98%E6%96%97%E7%BE%A4</t>
   </si>
   <si>
-    <t>航空母舰战斗群</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E5%BD%88%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>飛機彈射器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E5%BD%88%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>蒸汽彈射器</t>
+    <t>蒸汽弹射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>航空戰艦</t>
+    <t>航空战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BB%E5%9E%8B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -2465,39 +2444,36 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國海軍航空母艦列表</t>
+    <t>美国海军航空母舰列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>英國皇家海軍航空母艦列表</t>
+    <t>英国皇家海军航空母舰列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%BF%84%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>蘇俄航空母艦列表</t>
+    <t>苏俄航空母舰列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E8%BB%8D%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國人民解放軍海軍航空母艦列表</t>
+    <t>中国人民解放军海军航空母舰列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>Template talk-航空母艦</t>
+    <t>Template talk-航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>航空母艦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8A%A8%E5%8A%9B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
   </si>
   <si>
@@ -2507,97 +2483,94 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E8%A1%9B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>護衛航空母艦</t>
+    <t>护卫航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E7%90%83%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>氣球母艦</t>
+    <t>气球母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%B1%B3%E8%8C%B2%E7%B4%9A%E6%A0%B8%E5%8B%95%E5%8A%9B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>尼米茲級核動力航空母艦</t>
+    <t>尼米兹级核动力航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%B1%B3%E8%8C%B2%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>尼米茲號航空母艦</t>
+    <t>尼米兹号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%87%B7%E7%89%B9%C2%B7D%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>德懷特·D·艾森豪號航空母艦</t>
+    <t>德怀特·D·艾森豪号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E6%96%87%E6%A3%AE%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>卡爾·文森號航空母艦</t>
+    <t>卡尔·文森号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>西奧多·羅斯福號航空母艦</t>
+    <t>西奥多·罗斯福号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯號航空母艦</t>
+    <t>亚伯拉罕·林肯号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>喬治·華盛頓號航空母艦</t>
+    <t>乔治·华盛顿号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7C%C2%B7%E5%8F%B2%E5%9D%A6%E5%B0%BC%E6%96%AF%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>約翰·C·史坦尼斯號航空母艦</t>
+    <t>约翰·C·史坦尼斯号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%91%9E%C2%B7S%C2%B7%E6%9D%9C%E9%AD%AF%E9%96%80%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>哈瑞·S·杜魯門號航空母艦</t>
+    <t>哈瑞·S·杜鲁门号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>隆納·雷根號航空母艦</t>
+    <t>隆纳·雷根号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E5%B8%8C%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>喬治·H·W·布希號航空母艦</t>
+    <t>乔治·H·W·布希号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>福特號航空母艦</t>
+    <t>福特号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E5%A5%B3%E7%8E%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(R08)</t>
   </si>
   <si>
-    <t>伊麗莎白女王號航空母艦 (R08)</t>
+    <t>伊丽莎白女王号航空母舰 (R08)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A4%E8%88%AA%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -2609,9 +2582,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>直升機航空母艦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E7%94%B2%E6%9D%BF%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
   </si>
   <si>
@@ -2627,9 +2597,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>兩棲戰艦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E5%9D%9E%E7%99%BB%E9%99%86%E8%88%B0</t>
   </si>
   <si>
@@ -2639,13 +2606,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%BB%8A%E7%99%BB%E9%99%B8%E8%89%A6</t>
   </si>
   <si>
-    <t>戰車登陸艦</t>
+    <t>战车登陆舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%99%B8%E8%89%87</t>
   </si>
   <si>
-    <t>登陸艇</t>
+    <t>登陆艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E7%94%B2%E8%88%B0</t>
@@ -2663,7 +2630,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>高速戰艦</t>
+    <t>高速战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E7%94%B2%E8%88%B0</t>
@@ -2681,13 +2648,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%84%A1%E7%95%8F%E8%89%A6</t>
   </si>
   <si>
-    <t>前無畏艦</t>
+    <t>前无畏舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%84%A1%E7%95%8F%E8%89%A6</t>
   </si>
   <si>
-    <t>超無畏艦</t>
+    <t>超无畏舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E7%BA%A6%E5%9E%8B%E6%88%98%E5%88%97%E8%88%B0</t>
@@ -2699,9 +2666,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
   </si>
   <si>
-    <t>巡洋舰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E9%98%B2%E6%8A%A4%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
   </si>
   <si>
@@ -2729,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>輕巡洋艦</t>
+    <t>轻巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
@@ -2747,7 +2711,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>飛彈巡洋艦</t>
+    <t>飞弹巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E5%95%86%E8%88%B9</t>
@@ -2759,7 +2723,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E8%A3%9D%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>偽裝巡洋艦</t>
+    <t>伪装巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%B1%E9%80%90%E8%88%B0</t>
@@ -2771,13 +2735,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%98%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>巡防艦</t>
+    <t>巡防舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%A0%B1%E8%89%A6</t>
   </si>
   <si>
-    <t>通報艦</t>
+    <t>通报舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%98%B2%E8%88%B0</t>
@@ -2795,19 +2759,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%82%8F%E8%89%A6</t>
   </si>
   <si>
-    <t>巡邏艦</t>
+    <t>巡逻舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%82%8F%E8%89%87</t>
   </si>
   <si>
-    <t>巡邏艇</t>
+    <t>巡逻艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E8%A1%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>護衛艦</t>
+    <t>护卫舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%8E%E6%BD%9C%E8%89%87</t>
@@ -2831,13 +2795,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%9B%B7%E8%89%87</t>
   </si>
   <si>
-    <t>魚雷艇</t>
+    <t>鱼雷艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%9B%B7%E5%BF%AB%E8%89%87</t>
   </si>
   <si>
-    <t>魚雷快艇</t>
+    <t>鱼雷快艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/S%E8%89%87</t>
@@ -2867,19 +2831,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E9%9B%B7%E8%89%A6</t>
   </si>
   <si>
-    <t>掃雷艦</t>
+    <t>扫雷舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%9B%B7%E8%89%A6</t>
   </si>
   <si>
-    <t>獵雷艦</t>
+    <t>猎雷舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E7%B5%A6%E8%89%A6</t>
   </si>
   <si>
-    <t>補給艦</t>
+    <t>补给舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E8%88%B9</t>
@@ -2891,15 +2855,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%B0%B4%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>潛水母艦</t>
+    <t>潜水母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>潛艇</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Attack_submarine</t>
   </si>
   <si>
@@ -2915,7 +2876,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>微型潛艇</t>
+    <t>微型潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U%E5%9E%8B%E6%BD%9C%E8%89%87</t>
@@ -2945,19 +2906,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%8A%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>主力艦</t>
+    <t>主力舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E8%89%A6</t>
   </si>
   <si>
-    <t>旗艦</t>
+    <t>旗舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2969,7 +2930,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5283,7 +5244,7 @@
         <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="G68" t="n">
         <v>20</v>
@@ -5309,10 +5270,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -5338,10 +5299,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>27</v>
@@ -5367,10 +5328,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5396,10 +5357,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5425,10 +5386,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5454,10 +5415,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5483,10 +5444,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5512,10 +5473,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5541,10 +5502,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5570,10 +5531,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5599,10 +5560,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5628,10 +5589,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5657,10 +5618,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5686,10 +5647,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5715,10 +5676,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5744,10 +5705,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -5773,10 +5734,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5802,10 +5763,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5831,10 +5792,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5860,10 +5821,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5889,10 +5850,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5918,10 +5879,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5947,10 +5908,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5976,10 +5937,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6005,10 +5966,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6034,10 +5995,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6063,10 +6024,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>7</v>
@@ -6092,10 +6053,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6121,10 +6082,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6150,10 +6111,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -6179,10 +6140,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6208,10 +6169,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6237,10 +6198,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6266,10 +6227,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6295,10 +6256,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6324,10 +6285,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6353,10 +6314,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6382,10 +6343,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6411,10 +6372,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -6440,10 +6401,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6469,10 +6430,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6498,10 +6459,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6527,10 +6488,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6556,10 +6517,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6585,10 +6546,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6614,10 +6575,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6643,10 +6604,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6672,10 +6633,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6701,10 +6662,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6730,10 +6691,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6759,10 +6720,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6788,10 +6749,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6817,10 +6778,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6875,10 +6836,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6904,10 +6865,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6933,10 +6894,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6962,10 +6923,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6991,10 +6952,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7020,10 +6981,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7049,10 +7010,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7078,10 +7039,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7107,10 +7068,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7136,10 +7097,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7165,10 +7126,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7194,10 +7155,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7223,10 +7184,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7252,10 +7213,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7281,10 +7242,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7310,10 +7271,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7339,10 +7300,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7368,10 +7329,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140" t="s">
         <v>259</v>
-      </c>
-      <c r="F140" t="s">
-        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7397,10 +7358,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7426,10 +7387,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7455,10 +7416,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7484,10 +7445,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7513,10 +7474,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7542,10 +7503,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7571,10 +7532,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7600,10 +7561,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7629,10 +7590,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7658,10 +7619,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7687,10 +7648,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7716,10 +7677,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7745,10 +7706,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7774,10 +7735,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7803,10 +7764,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7832,10 +7793,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7861,10 +7822,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7890,10 +7851,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7919,10 +7880,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7948,10 +7909,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7977,10 +7938,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -8006,10 +7967,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8064,10 +8025,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8093,10 +8054,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8122,10 +8083,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8151,10 +8112,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8180,10 +8141,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>22</v>
@@ -8209,10 +8170,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -8238,10 +8199,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8267,10 +8228,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8296,10 +8257,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8325,10 +8286,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -8354,10 +8315,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -8383,10 +8344,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8412,10 +8373,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8441,10 +8402,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8470,10 +8431,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8499,10 +8460,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8528,10 +8489,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8557,10 +8518,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8586,10 +8547,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8615,10 +8576,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8644,10 +8605,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8702,10 +8663,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8731,10 +8692,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8760,10 +8721,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8789,10 +8750,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8818,10 +8779,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8847,10 +8808,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8876,10 +8837,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -8905,10 +8866,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8934,10 +8895,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>20</v>
@@ -8963,10 +8924,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8992,10 +8953,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9021,10 +8982,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9050,10 +9011,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9079,10 +9040,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9108,10 +9069,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9137,10 +9098,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9166,10 +9127,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9195,10 +9156,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -9224,10 +9185,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -9253,10 +9214,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -9311,10 +9272,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
         <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>7</v>
@@ -9340,10 +9301,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
         <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9369,10 +9330,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
         <v>401</v>
-      </c>
-      <c r="F209" t="s">
-        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>7</v>
@@ -9398,10 +9359,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>402</v>
+      </c>
+      <c r="F210" t="s">
         <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9427,10 +9388,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9456,10 +9417,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9485,10 +9446,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -9514,10 +9475,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9543,10 +9504,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9572,10 +9533,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9601,10 +9562,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>6</v>
@@ -9630,10 +9591,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>402</v>
+      </c>
+      <c r="F218" t="s">
         <v>403</v>
-      </c>
-      <c r="F218" t="s">
-        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9659,10 +9620,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>418</v>
+      </c>
+      <c r="F219" t="s">
         <v>419</v>
-      </c>
-      <c r="F219" t="s">
-        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>5</v>
@@ -9688,10 +9649,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>420</v>
+      </c>
+      <c r="F220" t="s">
         <v>421</v>
-      </c>
-      <c r="F220" t="s">
-        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -9717,10 +9678,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>422</v>
+      </c>
+      <c r="F221" t="s">
         <v>423</v>
-      </c>
-      <c r="F221" t="s">
-        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9746,10 +9707,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>424</v>
+      </c>
+      <c r="F222" t="s">
         <v>425</v>
-      </c>
-      <c r="F222" t="s">
-        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9775,10 +9736,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="G223" t="n">
         <v>20</v>
@@ -9804,10 +9765,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9833,10 +9794,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9862,10 +9823,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>7</v>
@@ -9920,10 +9881,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9949,10 +9910,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9978,10 +9939,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10007,10 +9968,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -10036,10 +9997,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -10094,10 +10055,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>66</v>
       </c>
       <c r="G234" t="n">
         <v>18</v>
@@ -10123,10 +10084,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>14</v>
@@ -10152,10 +10113,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G236" t="n">
         <v>7</v>
@@ -10181,10 +10142,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10210,10 +10171,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10239,10 +10200,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G239" t="n">
         <v>14</v>
@@ -10268,10 +10229,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10297,10 +10258,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10326,10 +10287,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10355,10 +10316,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10384,10 +10345,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10413,10 +10374,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10442,10 +10403,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10471,10 +10432,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10500,10 +10461,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10529,10 +10490,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -10558,10 +10519,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10587,10 +10548,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G251" t="n">
         <v>5</v>
@@ -10616,10 +10577,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G252" t="n">
         <v>17</v>
@@ -10645,10 +10606,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10674,10 +10635,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10703,10 +10664,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10732,10 +10693,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10761,10 +10722,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10790,10 +10751,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10819,10 +10780,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10848,10 +10809,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10877,10 +10838,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10906,10 +10867,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10935,10 +10896,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10964,10 +10925,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10993,10 +10954,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11022,10 +10983,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11051,10 +11012,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11080,10 +11041,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11109,10 +11070,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11138,10 +11099,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>404</v>
+      </c>
+      <c r="F270" t="s">
         <v>405</v>
-      </c>
-      <c r="F270" t="s">
-        <v>406</v>
       </c>
       <c r="G270" t="n">
         <v>4</v>
@@ -11167,10 +11128,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11196,10 +11157,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11225,10 +11186,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11254,10 +11215,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -11283,10 +11244,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11312,10 +11273,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>403</v>
       </c>
       <c r="G276" t="n">
         <v>20</v>
@@ -11341,10 +11302,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11370,10 +11331,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11399,10 +11360,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11428,10 +11389,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11457,10 +11418,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11486,10 +11447,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11515,10 +11476,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>400</v>
+      </c>
+      <c r="F283" t="s">
         <v>401</v>
-      </c>
-      <c r="F283" t="s">
-        <v>402</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11544,10 +11505,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11573,10 +11534,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11602,10 +11563,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11631,10 +11592,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11660,10 +11621,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11689,10 +11650,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11718,10 +11679,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11747,10 +11708,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11776,10 +11737,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11834,10 +11795,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11863,10 +11824,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11892,10 +11853,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11921,10 +11882,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11950,10 +11911,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11979,10 +11940,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12008,10 +11969,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12037,10 +11998,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12066,10 +12027,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G302" t="n">
         <v>4</v>
@@ -12095,10 +12056,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12124,10 +12085,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12153,10 +12114,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G305" t="n">
         <v>5</v>
@@ -12182,10 +12143,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12211,10 +12172,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12240,10 +12201,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12269,10 +12230,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12298,10 +12259,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12327,10 +12288,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12356,10 +12317,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12385,10 +12346,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12414,10 +12375,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12443,10 +12404,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12472,10 +12433,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12501,10 +12462,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G317" t="n">
         <v>4</v>
@@ -12530,10 +12491,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G318" t="n">
         <v>3</v>
@@ -12559,10 +12520,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G319" t="n">
         <v>16</v>
@@ -12588,10 +12549,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G320" t="n">
         <v>10</v>
@@ -12617,10 +12578,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -12646,10 +12607,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G322" t="n">
         <v>22</v>
@@ -12675,10 +12636,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G323" t="n">
         <v>15</v>
@@ -12704,10 +12665,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12733,10 +12694,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>396</v>
+      </c>
+      <c r="F325" t="s">
         <v>397</v>
-      </c>
-      <c r="F325" t="s">
-        <v>398</v>
       </c>
       <c r="G325" t="n">
         <v>31</v>
@@ -12762,10 +12723,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F326" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G326" t="n">
         <v>4</v>
@@ -12791,10 +12752,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12820,10 +12781,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F328" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12849,10 +12810,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F329" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12878,10 +12839,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F330" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G330" t="n">
         <v>7</v>
@@ -12907,10 +12868,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F331" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12936,10 +12897,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F332" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12965,10 +12926,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F333" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12994,10 +12955,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F334" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13023,10 +12984,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F335" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13052,10 +13013,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F336" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -13081,10 +13042,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F337" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13110,10 +13071,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F338" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13139,10 +13100,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F339" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13168,10 +13129,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F340" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -13197,10 +13158,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13226,10 +13187,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F342" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13255,10 +13216,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F343" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13284,10 +13245,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F344" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13313,10 +13274,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F345" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13342,10 +13303,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F346" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13371,10 +13332,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F347" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13400,10 +13361,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F348" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13429,10 +13390,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F349" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13458,10 +13419,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F350" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G350" t="n">
         <v>3</v>
@@ -13487,10 +13448,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13516,10 +13477,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13545,10 +13506,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F353" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13574,10 +13535,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F354" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13603,10 +13564,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F355" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13632,10 +13593,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F356" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13661,10 +13622,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F357" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13690,10 +13651,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F358" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13719,10 +13680,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F359" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13748,10 +13709,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F360" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13777,10 +13738,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F361" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13806,10 +13767,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F362" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13835,10 +13796,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F363" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13864,10 +13825,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F364" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13893,10 +13854,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F365" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13922,10 +13883,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F366" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G366" t="n">
         <v>9</v>
@@ -13951,10 +13912,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F367" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G367" t="n">
         <v>5</v>
@@ -13980,10 +13941,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F368" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14009,10 +13970,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F369" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G369" t="n">
         <v>3</v>
@@ -14038,10 +13999,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F370" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14067,10 +14028,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F371" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14096,10 +14057,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F372" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14125,10 +14086,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F373" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14154,10 +14115,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F374" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14183,10 +14144,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F375" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14212,10 +14173,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F376" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14241,10 +14202,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F377" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14270,10 +14231,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F378" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14299,10 +14260,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F379" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G379" t="n">
         <v>5</v>
@@ -14328,10 +14289,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F380" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14357,10 +14318,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F381" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G381" t="n">
         <v>6</v>
@@ -14386,10 +14347,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F382" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G382" t="n">
         <v>9</v>
@@ -14415,10 +14376,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F383" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14444,10 +14405,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>164</v>
+      </c>
+      <c r="F384" t="s">
         <v>165</v>
-      </c>
-      <c r="F384" t="s">
-        <v>166</v>
       </c>
       <c r="G384" t="n">
         <v>10</v>
@@ -14473,10 +14434,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F385" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14502,10 +14463,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F386" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14531,10 +14492,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F387" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14560,10 +14521,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F388" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14589,10 +14550,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F389" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14618,10 +14579,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F390" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14647,10 +14608,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F391" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14676,10 +14637,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F392" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14705,10 +14666,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>392</v>
+      </c>
+      <c r="F393" t="s">
         <v>393</v>
-      </c>
-      <c r="F393" t="s">
-        <v>394</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14734,10 +14695,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F394" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14763,10 +14724,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F395" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14792,10 +14753,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F396" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14821,10 +14782,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F397" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14850,10 +14811,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F398" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14879,10 +14840,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F399" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14908,10 +14869,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F400" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14937,10 +14898,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F401" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14966,10 +14927,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F402" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14995,10 +14956,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F403" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15024,10 +14985,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F404" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -15053,10 +15014,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F405" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15111,10 +15072,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F407" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15140,10 +15101,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F408" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15169,10 +15130,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F409" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15198,10 +15159,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F410" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15227,10 +15188,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F411" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15256,10 +15217,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F412" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15285,10 +15246,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F413" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15314,10 +15275,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F414" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15343,10 +15304,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F415" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15372,10 +15333,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F416" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15401,10 +15362,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>414</v>
+      </c>
+      <c r="F417" t="s">
         <v>415</v>
-      </c>
-      <c r="F417" t="s">
-        <v>416</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15430,10 +15391,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F418" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G418" t="n">
         <v>6</v>
@@ -15459,10 +15420,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F419" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15488,10 +15449,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F420" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G420" t="n">
         <v>3</v>
@@ -15517,10 +15478,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F421" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15546,10 +15507,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F422" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -15575,10 +15536,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F423" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15604,10 +15565,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F424" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15633,10 +15594,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F425" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15662,10 +15623,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F426" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15691,10 +15652,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F427" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15720,10 +15681,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F428" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15749,10 +15710,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F429" t="s">
-        <v>806</v>
+        <v>32</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15778,10 +15739,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F430" t="s">
-        <v>808</v>
+        <v>401</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -15807,10 +15768,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F431" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15836,10 +15797,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F432" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15865,10 +15826,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F433" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15894,10 +15855,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15923,10 +15884,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F435" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15952,10 +15913,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F436" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15981,10 +15942,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F437" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16010,10 +15971,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F438" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16039,10 +16000,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F439" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16068,10 +16029,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F440" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16097,10 +16058,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F441" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16126,10 +16087,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F442" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G442" t="n">
         <v>6</v>
@@ -16155,10 +16116,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F443" t="s">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="G443" t="n">
         <v>164</v>
@@ -16184,10 +16145,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F444" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G444" t="n">
         <v>4</v>
@@ -16213,10 +16174,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F445" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16242,10 +16203,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F446" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16271,10 +16232,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F447" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16300,10 +16261,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F448" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16329,10 +16290,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F449" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16358,10 +16319,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F450" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16387,10 +16348,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F451" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16416,10 +16377,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F452" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G452" t="n">
         <v>12</v>
@@ -16445,10 +16406,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F453" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G453" t="n">
         <v>3</v>
@@ -16474,10 +16435,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F454" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16503,10 +16464,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F455" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16532,10 +16493,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F456" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16561,10 +16522,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F457" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16590,10 +16551,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F458" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16619,10 +16580,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F459" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16648,10 +16609,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F460" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16677,10 +16638,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F461" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -16706,10 +16667,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F462" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16735,10 +16696,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F463" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16793,10 +16754,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F465" t="s">
-        <v>858</v>
+        <v>70</v>
       </c>
       <c r="G465" t="n">
         <v>27</v>
@@ -16822,10 +16783,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F466" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16880,10 +16841,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F468" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16909,10 +16870,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F469" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16938,10 +16899,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>424</v>
+      </c>
+      <c r="F470" t="s">
         <v>425</v>
-      </c>
-      <c r="F470" t="s">
-        <v>426</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16967,10 +16928,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>340</v>
+      </c>
+      <c r="F471" t="s">
         <v>341</v>
-      </c>
-      <c r="F471" t="s">
-        <v>342</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16996,10 +16957,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F472" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17025,10 +16986,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F473" t="s">
-        <v>864</v>
+        <v>687</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17054,10 +17015,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F474" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17083,10 +17044,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F475" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17112,10 +17073,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F476" t="s">
-        <v>870</v>
+        <v>717</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17141,10 +17102,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F477" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17170,10 +17131,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F478" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17199,10 +17160,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F479" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17228,10 +17189,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F480" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17257,10 +17218,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F481" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17286,10 +17247,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F482" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17315,10 +17276,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F483" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17344,10 +17305,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F484" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17373,10 +17334,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F485" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17402,10 +17363,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F486" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17431,10 +17392,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F487" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17460,10 +17421,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
+        <v>312</v>
+      </c>
+      <c r="F488" t="s">
         <v>313</v>
-      </c>
-      <c r="F488" t="s">
-        <v>314</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17489,10 +17450,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F489" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17518,10 +17479,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F490" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17547,10 +17508,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F491" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17576,10 +17537,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F492" t="s">
-        <v>894</v>
+        <v>325</v>
       </c>
       <c r="G492" t="n">
         <v>6</v>
@@ -17605,10 +17566,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F493" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17634,10 +17595,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="F494" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17663,10 +17624,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="F495" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -17692,10 +17653,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="F496" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -17721,10 +17682,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="F497" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -17750,10 +17711,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="F498" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17779,10 +17740,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="F499" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17808,10 +17769,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="F500" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17837,10 +17798,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F501" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17866,10 +17827,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="F502" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17895,10 +17856,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="F503" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -17924,10 +17885,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="F504" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17953,10 +17914,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="F505" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -17982,10 +17943,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F506" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18011,10 +17972,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="F507" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18040,10 +18001,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F508" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18069,10 +18030,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="F509" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18098,10 +18059,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="F510" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="G510" t="n">
         <v>5</v>
@@ -18127,10 +18088,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="F511" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18156,10 +18117,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F512" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18185,10 +18146,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="F513" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18214,10 +18175,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="F514" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18243,10 +18204,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="F515" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18272,10 +18233,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F516" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18301,10 +18262,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F517" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18330,10 +18291,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F518" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18359,10 +18320,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F519" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18388,10 +18349,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F520" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18417,10 +18378,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F521" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18446,10 +18407,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F522" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18475,10 +18436,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F523" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18504,10 +18465,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F524" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18533,10 +18494,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="F525" t="s">
-        <v>960</v>
+        <v>135</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -18562,10 +18523,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="F526" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18591,10 +18552,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
+        <v>410</v>
+      </c>
+      <c r="F527" t="s">
         <v>411</v>
-      </c>
-      <c r="F527" t="s">
-        <v>412</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18620,10 +18581,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="F528" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18649,10 +18610,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="F529" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18678,10 +18639,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F530" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18707,10 +18668,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F531" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18736,10 +18697,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F532" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18765,10 +18726,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F533" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18794,10 +18755,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F534" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18823,10 +18784,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F535" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="G535" t="n">
         <v>3</v>
@@ -18852,10 +18813,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F536" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -18881,10 +18842,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F537" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="G537" t="n">
         <v>3</v>
@@ -18910,10 +18871,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F538" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -18939,10 +18900,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F539" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
